--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Rbp3-Notch1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Rbp3-Notch1.xlsx
@@ -528,16 +528,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.736616436377547</v>
+        <v>0.8223676666666666</v>
       </c>
       <c r="H2">
-        <v>0.736616436377547</v>
+        <v>2.467103</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>52.529384758903</v>
+        <v>55.908252</v>
       </c>
       <c r="N2">
-        <v>52.529384758903</v>
+        <v>167.724756</v>
       </c>
       <c r="O2">
-        <v>0.6507128636628369</v>
+        <v>0.6412441619121594</v>
       </c>
       <c r="P2">
-        <v>0.6507128636628369</v>
+        <v>0.6412441619121594</v>
       </c>
       <c r="Q2">
-        <v>38.69400820620816</v>
+        <v>45.977138744652</v>
       </c>
       <c r="R2">
-        <v>38.69400820620816</v>
+        <v>413.794248701868</v>
       </c>
       <c r="S2">
-        <v>0.6507128636628369</v>
+        <v>0.6412441619121594</v>
       </c>
       <c r="T2">
-        <v>0.6507128636628369</v>
+        <v>0.6412441619121594</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.736616436377547</v>
+        <v>0.8223676666666666</v>
       </c>
       <c r="H3">
-        <v>0.736616436377547</v>
+        <v>2.467103</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.27882279016874</v>
+        <v>5.370676</v>
       </c>
       <c r="N3">
-        <v>5.27882279016874</v>
+        <v>16.112028</v>
       </c>
       <c r="O3">
-        <v>0.06539193082738635</v>
+        <v>0.06159939735768789</v>
       </c>
       <c r="P3">
-        <v>0.06539193082738635</v>
+        <v>0.06159939735768789</v>
       </c>
       <c r="Q3">
-        <v>3.888467631962677</v>
+        <v>4.416670290542667</v>
       </c>
       <c r="R3">
-        <v>3.888467631962677</v>
+        <v>39.75003261488401</v>
       </c>
       <c r="S3">
-        <v>0.06539193082738635</v>
+        <v>0.06159939735768789</v>
       </c>
       <c r="T3">
-        <v>0.06539193082738635</v>
+        <v>0.06159939735768789</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.736616436377547</v>
+        <v>0.8223676666666666</v>
       </c>
       <c r="H4">
-        <v>0.736616436377547</v>
+        <v>2.467103</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.9176973657584</v>
+        <v>25.90822366666667</v>
       </c>
       <c r="N4">
-        <v>22.9176973657584</v>
+        <v>77.724671</v>
       </c>
       <c r="O4">
-        <v>0.2838952055097768</v>
+        <v>0.2971564407301527</v>
       </c>
       <c r="P4">
-        <v>0.2838952055097768</v>
+        <v>0.2971564407301527</v>
       </c>
       <c r="Q4">
-        <v>16.88155256354405</v>
+        <v>21.30608544423478</v>
       </c>
       <c r="R4">
-        <v>16.88155256354405</v>
+        <v>191.754768998113</v>
       </c>
       <c r="S4">
-        <v>0.2838952055097768</v>
+        <v>0.2971564407301527</v>
       </c>
       <c r="T4">
-        <v>0.2838952055097768</v>
+        <v>0.2971564407301527</v>
       </c>
     </row>
   </sheetData>
